--- a/LW_8/Compare.xlsx
+++ b/LW_8/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дианочка\PycharmProjects\DigitalMediaProcessingAlgorithms\LW_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DBD8C8-38D2-480B-B9BA-5F86A342046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A144C0-080C-4AE3-9053-E518C683BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
